--- a/Code/Results/Cases/Case_4_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_93/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.464200225451691</v>
+        <v>1.458829987332251</v>
       </c>
       <c r="C2">
-        <v>1.302612322940888</v>
+        <v>0.3733463158623067</v>
       </c>
       <c r="D2">
-        <v>0.213444516795434</v>
+        <v>0.07915418184603595</v>
       </c>
       <c r="E2">
-        <v>1.491943309674909</v>
+        <v>0.4194773432817129</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.090918435641839</v>
+        <v>1.067603345455211</v>
       </c>
       <c r="H2">
-        <v>1.076973521122511</v>
+        <v>0.9205681559414813</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4839159385746754</v>
+        <v>1.004369710222033</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.835899358667575</v>
+        <v>1.296233088693612</v>
       </c>
       <c r="C3">
-        <v>1.120733328306102</v>
+        <v>0.3248722604003547</v>
       </c>
       <c r="D3">
-        <v>0.1834680073337296</v>
+        <v>0.07167795652539155</v>
       </c>
       <c r="E3">
-        <v>1.269242661983128</v>
+        <v>0.3655159147182587</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.813001557777824</v>
+        <v>1.007881880447229</v>
       </c>
       <c r="H3">
-        <v>0.9568300158680074</v>
+        <v>0.8998350751053579</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5287446745520405</v>
+        <v>1.020781354355904</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.457497779554728</v>
+        <v>1.196917738862737</v>
       </c>
       <c r="C4">
-        <v>1.011174939708241</v>
+        <v>0.2951292708929145</v>
       </c>
       <c r="D4">
-        <v>0.165484608671477</v>
+        <v>0.06713178741078707</v>
       </c>
       <c r="E4">
-        <v>1.137008495804835</v>
+        <v>0.3325322338200181</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.649309454925742</v>
+        <v>0.9721569116691455</v>
       </c>
       <c r="H4">
-        <v>0.8866069877359166</v>
+        <v>0.8878196540285046</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5580248094545688</v>
+        <v>1.031384026589798</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.304841900043129</v>
+        <v>1.156572705499684</v>
       </c>
       <c r="C5">
-        <v>0.9669652360884413</v>
+        <v>0.2830125298288522</v>
       </c>
       <c r="D5">
-        <v>0.1582463717874987</v>
+        <v>0.06529007773322348</v>
       </c>
       <c r="E5">
-        <v>1.084060529678084</v>
+        <v>0.3191252144372783</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.584113036737705</v>
+        <v>0.9578319292870106</v>
       </c>
       <c r="H5">
-        <v>0.8587709736588067</v>
+        <v>0.8831012017985813</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5703661017283714</v>
+        <v>1.035836247133087</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.279578496493173</v>
+        <v>1.149880987233303</v>
       </c>
       <c r="C6">
-        <v>0.959648007822409</v>
+        <v>0.2810007434346744</v>
       </c>
       <c r="D6">
-        <v>0.1570494764458772</v>
+        <v>0.06498491412483531</v>
       </c>
       <c r="E6">
-        <v>1.075320052039942</v>
+        <v>0.3169009520463533</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.573371940133512</v>
+        <v>0.9554672414624292</v>
       </c>
       <c r="H6">
-        <v>0.8541929532690631</v>
+        <v>0.8823284005372898</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5724392263320297</v>
+        <v>1.03658346010722</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.455433133054441</v>
+        <v>1.196373123454578</v>
       </c>
       <c r="C7">
-        <v>1.010577064331244</v>
+        <v>0.294965846769685</v>
       </c>
       <c r="D7">
-        <v>0.1653866462233253</v>
+        <v>0.06710690568560551</v>
       </c>
       <c r="E7">
-        <v>1.136290858917604</v>
+        <v>0.3323512883776232</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.648424376453306</v>
+        <v>0.9719627811195153</v>
       </c>
       <c r="H7">
-        <v>0.8862285591239925</v>
+        <v>0.8877553012672195</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5581896303165657</v>
+        <v>1.031443539064099</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.245832768736761</v>
+        <v>1.402656254550834</v>
       </c>
       <c r="C8">
-        <v>1.239399729242962</v>
+        <v>0.3566274320950242</v>
       </c>
       <c r="D8">
-        <v>0.2030107243596433</v>
+        <v>0.07656704514189983</v>
       </c>
       <c r="E8">
-        <v>1.414095499942533</v>
+        <v>0.4008385141661535</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.993497725790206</v>
+        <v>1.046812838934642</v>
       </c>
       <c r="H8">
-        <v>1.034741013465322</v>
+        <v>0.9132699353826865</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.498988182172134</v>
+        <v>1.00991889074756</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.87057922448696</v>
+        <v>1.811501836430011</v>
       </c>
       <c r="C9">
-        <v>1.709972336607336</v>
+        <v>0.4777730332828583</v>
       </c>
       <c r="D9">
-        <v>0.280977589182271</v>
+        <v>0.0954814382823912</v>
       </c>
       <c r="E9">
-        <v>2.005074900170001</v>
+        <v>0.5364807574718782</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.737821347039556</v>
+        <v>1.201285346262864</v>
       </c>
       <c r="H9">
-        <v>1.359932454616995</v>
+        <v>0.9690614951722694</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3984871979173974</v>
+        <v>0.9719118615105415</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.136935935049394</v>
+        <v>2.114828834429886</v>
       </c>
       <c r="C10">
-        <v>2.07752877886611</v>
+        <v>0.5670189753116688</v>
       </c>
       <c r="D10">
-        <v>0.3421906278787361</v>
+        <v>0.1096172124639594</v>
       </c>
       <c r="E10">
-        <v>2.485482013054849</v>
+        <v>0.6371832104419468</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.346742109741484</v>
+        <v>1.319755956591422</v>
       </c>
       <c r="H10">
-        <v>1.629268778635122</v>
+        <v>1.013687192842724</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3369236013367711</v>
+        <v>0.9465913107503141</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.736497480813682</v>
+        <v>2.253530972620638</v>
       </c>
       <c r="C11">
-        <v>2.25192069564423</v>
+        <v>0.6076943741458649</v>
       </c>
       <c r="D11">
-        <v>0.3712776557253363</v>
+        <v>0.116103968987801</v>
       </c>
       <c r="E11">
-        <v>2.719452171816656</v>
+        <v>0.6832737295401756</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.643166774591776</v>
+        <v>1.374797109839733</v>
       </c>
       <c r="H11">
-        <v>1.761168315750552</v>
+        <v>1.034806053287554</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3123699077933324</v>
+        <v>0.9356466480480421</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.967726706880285</v>
+        <v>2.306162239173432</v>
       </c>
       <c r="C12">
-        <v>2.319252901402535</v>
+        <v>0.6231098880763852</v>
       </c>
       <c r="D12">
-        <v>0.3825109353752083</v>
+        <v>0.1185687403045819</v>
       </c>
       <c r="E12">
-        <v>2.810865825233378</v>
+        <v>0.7007714289187987</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.758838594036689</v>
+        <v>1.395809994045464</v>
       </c>
       <c r="H12">
-        <v>1.812757498710113</v>
+        <v>1.042923130010621</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3036523506885658</v>
+        <v>0.9315855012788816</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.91772621760424</v>
+        <v>2.294822285517796</v>
       </c>
       <c r="C13">
-        <v>2.30468937228386</v>
+        <v>0.6197892947658943</v>
       </c>
       <c r="D13">
-        <v>0.3800811907742911</v>
+        <v>0.1180375306210095</v>
       </c>
       <c r="E13">
-        <v>2.791041912047973</v>
+        <v>0.6970009567829152</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.733762840366467</v>
+        <v>1.391276854422813</v>
       </c>
       <c r="H13">
-        <v>1.801568446314292</v>
+        <v>1.04116960868663</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3055024798632218</v>
+        <v>0.932456420741083</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.755431621594539</v>
+        <v>2.257858791527838</v>
       </c>
       <c r="C14">
-        <v>2.25743252326663</v>
+        <v>0.6089623557270443</v>
       </c>
       <c r="D14">
-        <v>0.3721971816499376</v>
+        <v>0.1163065776970456</v>
       </c>
       <c r="E14">
-        <v>2.726912456191073</v>
+        <v>0.6847123669843995</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.652610468772025</v>
+        <v>1.376522417318711</v>
       </c>
       <c r="H14">
-        <v>1.76537777177046</v>
+        <v>1.035471436266391</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3116405294395079</v>
+        <v>0.9353108594843533</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.656594040575612</v>
+        <v>2.235231759928581</v>
       </c>
       <c r="C15">
-        <v>2.228663560413736</v>
+        <v>0.6023322336354227</v>
       </c>
       <c r="D15">
-        <v>0.367397810395488</v>
+        <v>0.1152474183958816</v>
       </c>
       <c r="E15">
-        <v>2.688018126162646</v>
+        <v>0.6771911265255</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.603369039266425</v>
+        <v>1.367507182892609</v>
       </c>
       <c r="H15">
-        <v>1.743433553086277</v>
+        <v>1.031996809685438</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3154786547175661</v>
+        <v>0.9370701670083363</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.098291217875442</v>
+        <v>2.105779149482032</v>
       </c>
       <c r="C16">
-        <v>2.066297438617539</v>
+        <v>0.5643624232675961</v>
       </c>
       <c r="D16">
-        <v>0.340317945735535</v>
+        <v>0.109194444677712</v>
       </c>
       <c r="E16">
-        <v>2.470549525594649</v>
+        <v>0.6341770609332258</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.327811625114805</v>
+        <v>1.316182408698126</v>
       </c>
       <c r="H16">
-        <v>1.620861166734954</v>
+        <v>1.012323675795358</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3386044818918705</v>
+        <v>0.9473181884739859</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.762330907854619</v>
+        <v>2.026551120454428</v>
       </c>
       <c r="C17">
-        <v>1.968699832383436</v>
+        <v>0.5410899833796634</v>
       </c>
       <c r="D17">
-        <v>0.3240492890404738</v>
+        <v>0.1054957630240523</v>
       </c>
       <c r="E17">
-        <v>2.341470115379948</v>
+        <v>0.6078639007685922</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.164147389768402</v>
+        <v>1.284993864244598</v>
       </c>
       <c r="H17">
-        <v>1.548258183482744</v>
+        <v>1.000465966305825</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3537298966989439</v>
+        <v>0.9537525769570507</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.571248974199818</v>
+        <v>1.981048471485281</v>
       </c>
       <c r="C18">
-        <v>1.913222392095179</v>
+        <v>0.5277114412504602</v>
       </c>
       <c r="D18">
-        <v>0.3148059605079396</v>
+        <v>0.1033736634580293</v>
       </c>
       <c r="E18">
-        <v>2.268636315209932</v>
+        <v>0.5927554284369734</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.071795676862564</v>
+        <v>1.267162823287237</v>
       </c>
       <c r="H18">
-        <v>1.50736069323159</v>
+        <v>0.993722627518224</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3627485970741517</v>
+        <v>0.957507422364241</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.50689983059425</v>
+        <v>1.96565346136714</v>
       </c>
       <c r="C19">
-        <v>1.894544703572251</v>
+        <v>0.5231828779840271</v>
       </c>
       <c r="D19">
-        <v>0.3116948068697383</v>
+        <v>0.1026560562028891</v>
       </c>
       <c r="E19">
-        <v>2.24420230092511</v>
+        <v>0.5876443354253524</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.040816288925413</v>
+        <v>1.261143904258574</v>
       </c>
       <c r="H19">
-        <v>1.49365358765462</v>
+        <v>0.9914525924265831</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3658546786749852</v>
+        <v>0.9587879897295686</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.797866248899538</v>
+        <v>2.034978089300182</v>
       </c>
       <c r="C20">
-        <v>1.97901944967515</v>
+        <v>0.5435666232165204</v>
       </c>
       <c r="D20">
-        <v>0.3257690540959146</v>
+        <v>0.1058889450977745</v>
       </c>
       <c r="E20">
-        <v>2.355061146391876</v>
+        <v>0.6106622460676618</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.181381000656899</v>
+        <v>1.288302747689926</v>
       </c>
       <c r="H20">
-        <v>1.555895774846704</v>
+        <v>1.001720265305522</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3520862070953541</v>
+        <v>0.9530620350432031</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.802980451095834</v>
+        <v>2.268712903041489</v>
       </c>
       <c r="C21">
-        <v>2.271275520721929</v>
+        <v>0.6121421350086962</v>
       </c>
       <c r="D21">
-        <v>0.3745066093519256</v>
+        <v>0.1168147709222609</v>
       </c>
       <c r="E21">
-        <v>2.745666928319338</v>
+        <v>0.6883205921627393</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.676348289885368</v>
+        <v>1.380851500299002</v>
       </c>
       <c r="H21">
-        <v>1.775960629715598</v>
+        <v>1.037141858444301</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3098211214813844</v>
+        <v>0.934470172421122</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.484810844357867</v>
+        <v>2.422102565488785</v>
       </c>
       <c r="C22">
-        <v>2.469990767726983</v>
+        <v>0.6570345220313811</v>
       </c>
       <c r="D22">
-        <v>0.4076591804694516</v>
+        <v>0.1240043929593782</v>
       </c>
       <c r="E22">
-        <v>3.017754555378048</v>
+        <v>0.7393344241266391</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.020188424317922</v>
+        <v>1.442330638515585</v>
       </c>
       <c r="H22">
-        <v>1.929542529204411</v>
+        <v>1.060991356462978</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2856349891870167</v>
+        <v>0.9228056045774551</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.118306210471019</v>
+        <v>2.340176362460852</v>
       </c>
       <c r="C23">
-        <v>2.363124721031397</v>
+        <v>0.6330672859429001</v>
       </c>
       <c r="D23">
-        <v>0.3898304724458939</v>
+        <v>0.1201625827396384</v>
       </c>
       <c r="E23">
-        <v>2.8707581787572</v>
+        <v>0.7120823204642477</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.834565303226469</v>
+        <v>1.409425557016334</v>
       </c>
       <c r="H23">
-        <v>1.846565076451498</v>
+        <v>1.048197714932684</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2981962270154668</v>
+        <v>0.9289864232216161</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.781794344432001</v>
+        <v>2.031168111885165</v>
       </c>
       <c r="C24">
-        <v>1.974351998714553</v>
+        <v>0.5424469310572704</v>
       </c>
       <c r="D24">
-        <v>0.3249912094238567</v>
+        <v>0.1057111740420709</v>
       </c>
       <c r="E24">
-        <v>2.348912399112621</v>
+        <v>0.6093970542924012</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.173584307804219</v>
+        <v>1.286806491406196</v>
       </c>
       <c r="H24">
-        <v>1.55244021548998</v>
+        <v>1.001152966967823</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3528283195005741</v>
+        <v>0.9533740558323771</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.420521516697818</v>
+        <v>1.700403441628339</v>
       </c>
       <c r="C25">
-        <v>1.579543758894999</v>
+        <v>0.444965208069334</v>
       </c>
       <c r="D25">
-        <v>0.2593084986167042</v>
+        <v>0.09032387880350257</v>
       </c>
       <c r="E25">
-        <v>1.838609541810513</v>
+        <v>0.499619096640302</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.527287811009671</v>
+        <v>1.158643226371225</v>
       </c>
       <c r="H25">
-        <v>1.267422279399256</v>
+        <v>0.9533391626897583</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4237492158037099</v>
+        <v>0.9817396445230386</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_93/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.458829987332251</v>
+        <v>4.464200225451691</v>
       </c>
       <c r="C2">
-        <v>0.3733463158623067</v>
+        <v>1.302612322940945</v>
       </c>
       <c r="D2">
-        <v>0.07915418184603595</v>
+        <v>0.2134445167952208</v>
       </c>
       <c r="E2">
-        <v>0.4194773432817129</v>
+        <v>1.491943309674852</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.067603345455211</v>
+        <v>2.090918435641839</v>
       </c>
       <c r="H2">
-        <v>0.9205681559414813</v>
+        <v>1.076973521122483</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.004369710222033</v>
+        <v>0.4839159385746079</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.296233088693612</v>
+        <v>3.835899358667575</v>
       </c>
       <c r="C3">
-        <v>0.3248722604003547</v>
+        <v>1.120733328306244</v>
       </c>
       <c r="D3">
-        <v>0.07167795652539155</v>
+        <v>0.1834680073337296</v>
       </c>
       <c r="E3">
-        <v>0.3655159147182587</v>
+        <v>1.2692426619831</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.007881880447229</v>
+        <v>1.813001557777909</v>
       </c>
       <c r="H3">
-        <v>0.8998350751053579</v>
+        <v>0.9568300158680074</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.020781354355904</v>
+        <v>0.5287446745520405</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.196917738862737</v>
+        <v>3.457497779554842</v>
       </c>
       <c r="C4">
-        <v>0.2951292708929145</v>
+        <v>1.011174939708241</v>
       </c>
       <c r="D4">
-        <v>0.06713178741078707</v>
+        <v>0.1654846086714912</v>
       </c>
       <c r="E4">
-        <v>0.3325322338200181</v>
+        <v>1.137008495804821</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9721569116691455</v>
+        <v>1.649309454925771</v>
       </c>
       <c r="H4">
-        <v>0.8878196540285046</v>
+        <v>0.8866069877358029</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.031384026589798</v>
+        <v>0.5580248094545439</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.156572705499684</v>
+        <v>3.304841900043357</v>
       </c>
       <c r="C5">
-        <v>0.2830125298288522</v>
+        <v>0.9669652360882708</v>
       </c>
       <c r="D5">
-        <v>0.06529007773322348</v>
+        <v>0.1582463717875839</v>
       </c>
       <c r="E5">
-        <v>0.3191252144372783</v>
+        <v>1.084060529678084</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.9578319292870106</v>
+        <v>1.584113036737676</v>
       </c>
       <c r="H5">
-        <v>0.8831012017985813</v>
+        <v>0.858770973658693</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.035836247133087</v>
+        <v>0.5703661017283075</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.149880987233303</v>
+        <v>3.279578496493286</v>
       </c>
       <c r="C6">
-        <v>0.2810007434346744</v>
+        <v>0.9596480078222953</v>
       </c>
       <c r="D6">
-        <v>0.06498491412483531</v>
+        <v>0.1570494764459909</v>
       </c>
       <c r="E6">
-        <v>0.3169009520463533</v>
+        <v>1.075320052039956</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.9554672414624292</v>
+        <v>1.573371940133541</v>
       </c>
       <c r="H6">
-        <v>0.8823284005372898</v>
+        <v>0.8541929532690631</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.03658346010722</v>
+        <v>0.5724392263319764</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.196373123454578</v>
+        <v>3.455433133054271</v>
       </c>
       <c r="C7">
-        <v>0.294965846769685</v>
+        <v>1.010577064331216</v>
       </c>
       <c r="D7">
-        <v>0.06710690568560551</v>
+        <v>0.1653866462232116</v>
       </c>
       <c r="E7">
-        <v>0.3323512883776232</v>
+        <v>1.136290858917604</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.9719627811195153</v>
+        <v>1.648424376453221</v>
       </c>
       <c r="H7">
-        <v>0.8877553012672195</v>
+        <v>0.8862285591239925</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.031443539064099</v>
+        <v>0.5581896303165088</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.402656254550834</v>
+        <v>4.245832768736818</v>
       </c>
       <c r="C8">
-        <v>0.3566274320950242</v>
+        <v>1.239399729242848</v>
       </c>
       <c r="D8">
-        <v>0.07656704514189983</v>
+        <v>0.2030107243595438</v>
       </c>
       <c r="E8">
-        <v>0.4008385141661535</v>
+        <v>1.41409549994259</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.046812838934642</v>
+        <v>1.993497725790263</v>
       </c>
       <c r="H8">
-        <v>0.9132699353826865</v>
+        <v>1.034741013465322</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.00991889074756</v>
+        <v>0.4989881821721376</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.811501836430011</v>
+        <v>5.870579224486733</v>
       </c>
       <c r="C9">
-        <v>0.4777730332828583</v>
+        <v>1.709972336607052</v>
       </c>
       <c r="D9">
-        <v>0.0954814382823912</v>
+        <v>0.2809775891823847</v>
       </c>
       <c r="E9">
-        <v>0.5364807574718782</v>
+        <v>2.005074900169959</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.201285346262864</v>
+        <v>2.737821347039443</v>
       </c>
       <c r="H9">
-        <v>0.9690614951722694</v>
+        <v>1.359932454617024</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9719118615105415</v>
+        <v>0.3984871979174045</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.114828834429886</v>
+        <v>7.136935935049337</v>
       </c>
       <c r="C10">
-        <v>0.5670189753116688</v>
+        <v>2.077528778866053</v>
       </c>
       <c r="D10">
-        <v>0.1096172124639594</v>
+        <v>0.3421906278787361</v>
       </c>
       <c r="E10">
-        <v>0.6371832104419468</v>
+        <v>2.485482013054849</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.319755956591422</v>
+        <v>3.346742109741456</v>
       </c>
       <c r="H10">
-        <v>1.013687192842724</v>
+        <v>1.629268778635009</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9465913107503141</v>
+        <v>0.3369236013367782</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.253530972620638</v>
+        <v>7.736497480813625</v>
       </c>
       <c r="C11">
-        <v>0.6076943741458649</v>
+        <v>2.251920695644571</v>
       </c>
       <c r="D11">
-        <v>0.116103968987801</v>
+        <v>0.3712776557251232</v>
       </c>
       <c r="E11">
-        <v>0.6832737295401756</v>
+        <v>2.719452171816627</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.374797109839733</v>
+        <v>3.64316677459189</v>
       </c>
       <c r="H11">
-        <v>1.034806053287554</v>
+        <v>1.761168315750382</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9356466480480421</v>
+        <v>0.3123699077933182</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.306162239173432</v>
+        <v>7.967726706880399</v>
       </c>
       <c r="C12">
-        <v>0.6231098880763852</v>
+        <v>2.319252901402763</v>
       </c>
       <c r="D12">
-        <v>0.1185687403045819</v>
+        <v>0.3825109353746967</v>
       </c>
       <c r="E12">
-        <v>0.7007714289187987</v>
+        <v>2.810865825233449</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.395809994045464</v>
+        <v>3.758838594036689</v>
       </c>
       <c r="H12">
-        <v>1.042923130010621</v>
+        <v>1.812757498710226</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9315855012788816</v>
+        <v>0.3036523506886155</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.294822285517796</v>
+        <v>7.917726217604184</v>
       </c>
       <c r="C13">
-        <v>0.6197892947658943</v>
+        <v>2.304689372283917</v>
       </c>
       <c r="D13">
-        <v>0.1180375306210095</v>
+        <v>0.3800811907743622</v>
       </c>
       <c r="E13">
-        <v>0.6970009567829152</v>
+        <v>2.791041912047945</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.391276854422813</v>
+        <v>3.733762840366467</v>
       </c>
       <c r="H13">
-        <v>1.04116960868663</v>
+        <v>1.801568446314263</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.932456420741083</v>
+        <v>0.3055024798632715</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.257858791527838</v>
+        <v>7.75543162159471</v>
       </c>
       <c r="C14">
-        <v>0.6089623557270443</v>
+        <v>2.2574325232668</v>
       </c>
       <c r="D14">
-        <v>0.1163065776970456</v>
+        <v>0.3721971816499234</v>
       </c>
       <c r="E14">
-        <v>0.6847123669843995</v>
+        <v>2.72691245619103</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.376522417318711</v>
+        <v>3.652610468772082</v>
       </c>
       <c r="H14">
-        <v>1.035471436266391</v>
+        <v>1.765377771770488</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9353108594843533</v>
+        <v>0.3116405294395008</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.235231759928581</v>
+        <v>7.656594040575783</v>
       </c>
       <c r="C15">
-        <v>0.6023322336354227</v>
+        <v>2.22866356041402</v>
       </c>
       <c r="D15">
-        <v>0.1152474183958816</v>
+        <v>0.3673978103953885</v>
       </c>
       <c r="E15">
-        <v>0.6771911265255</v>
+        <v>2.688018126162646</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.367507182892609</v>
+        <v>3.603369039266482</v>
       </c>
       <c r="H15">
-        <v>1.031996809685438</v>
+        <v>1.743433553086248</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9370701670083363</v>
+        <v>0.3154786547175661</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.105779149482032</v>
+        <v>7.098291217875499</v>
       </c>
       <c r="C16">
-        <v>0.5643624232675961</v>
+        <v>2.066297438617539</v>
       </c>
       <c r="D16">
-        <v>0.109194444677712</v>
+        <v>0.3403179457353929</v>
       </c>
       <c r="E16">
-        <v>0.6341770609332258</v>
+        <v>2.470549525594663</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.316182408698126</v>
+        <v>3.327811625114805</v>
       </c>
       <c r="H16">
-        <v>1.012323675795358</v>
+        <v>1.620861166735068</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9473181884739859</v>
+        <v>0.3386044818919203</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.026551120454428</v>
+        <v>6.762330907854732</v>
       </c>
       <c r="C17">
-        <v>0.5410899833796634</v>
+        <v>1.968699832383663</v>
       </c>
       <c r="D17">
-        <v>0.1054957630240523</v>
+        <v>0.3240492890406017</v>
       </c>
       <c r="E17">
-        <v>0.6078639007685922</v>
+        <v>2.341470115379906</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.284993864244598</v>
+        <v>3.164147389768402</v>
       </c>
       <c r="H17">
-        <v>1.000465966305825</v>
+        <v>1.548258183482716</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9537525769570507</v>
+        <v>0.3537298966989439</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.981048471485281</v>
+        <v>6.571248974199705</v>
       </c>
       <c r="C18">
-        <v>0.5277114412504602</v>
+        <v>1.913222392094895</v>
       </c>
       <c r="D18">
-        <v>0.1033736634580293</v>
+        <v>0.3148059605080249</v>
       </c>
       <c r="E18">
-        <v>0.5927554284369734</v>
+        <v>2.268636315209918</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.267162823287237</v>
+        <v>3.071795676862649</v>
       </c>
       <c r="H18">
-        <v>0.993722627518224</v>
+        <v>1.507360693231561</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.957507422364241</v>
+        <v>0.3627485970741731</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.96565346136714</v>
+        <v>6.506899830594307</v>
       </c>
       <c r="C19">
-        <v>0.5231828779840271</v>
+        <v>1.894544703572535</v>
       </c>
       <c r="D19">
-        <v>0.1026560562028891</v>
+        <v>0.3116948068697241</v>
       </c>
       <c r="E19">
-        <v>0.5876443354253524</v>
+        <v>2.244202300925139</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.261143904258574</v>
+        <v>3.040816288925299</v>
       </c>
       <c r="H19">
-        <v>0.9914525924265831</v>
+        <v>1.493653587654705</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9587879897295686</v>
+        <v>0.3658546786749923</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.034978089300182</v>
+        <v>6.797866248899311</v>
       </c>
       <c r="C20">
-        <v>0.5435666232165204</v>
+        <v>1.97901944967515</v>
       </c>
       <c r="D20">
-        <v>0.1058889450977745</v>
+        <v>0.3257690540957867</v>
       </c>
       <c r="E20">
-        <v>0.6106622460676618</v>
+        <v>2.355061146391861</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.288302747689926</v>
+        <v>3.181381000656842</v>
       </c>
       <c r="H20">
-        <v>1.001720265305522</v>
+        <v>1.555895774846817</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9530620350432031</v>
+        <v>0.352086207095418</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.268712903041489</v>
+        <v>7.802980451096005</v>
       </c>
       <c r="C21">
-        <v>0.6121421350086962</v>
+        <v>2.271275520722156</v>
       </c>
       <c r="D21">
-        <v>0.1168147709222609</v>
+        <v>0.3745066093517977</v>
       </c>
       <c r="E21">
-        <v>0.6883205921627393</v>
+        <v>2.745666928319395</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.380851500299002</v>
+        <v>3.676348289885425</v>
       </c>
       <c r="H21">
-        <v>1.037141858444301</v>
+        <v>1.775960629715485</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.934470172421122</v>
+        <v>0.3098211214813702</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.422102565488785</v>
+        <v>8.484810844357867</v>
       </c>
       <c r="C22">
-        <v>0.6570345220313811</v>
+        <v>2.46999076772704</v>
       </c>
       <c r="D22">
-        <v>0.1240043929593782</v>
+        <v>0.4076591804695369</v>
       </c>
       <c r="E22">
-        <v>0.7393344241266391</v>
+        <v>3.017754555378048</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.442330638515585</v>
+        <v>4.020188424317951</v>
       </c>
       <c r="H22">
-        <v>1.060991356462978</v>
+        <v>1.929542529204355</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9228056045774551</v>
+        <v>0.2856349891870309</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.340176362460852</v>
+        <v>8.118306210471076</v>
       </c>
       <c r="C23">
-        <v>0.6330672859429001</v>
+        <v>2.363124721031227</v>
       </c>
       <c r="D23">
-        <v>0.1201625827396384</v>
+        <v>0.3898304724459933</v>
       </c>
       <c r="E23">
-        <v>0.7120823204642477</v>
+        <v>2.8707581787572</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.409425557016334</v>
+        <v>3.834565303226441</v>
       </c>
       <c r="H23">
-        <v>1.048197714932684</v>
+        <v>1.846565076451498</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9289864232216161</v>
+        <v>0.2981962270154739</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.031168111885165</v>
+        <v>6.781794344432114</v>
       </c>
       <c r="C24">
-        <v>0.5424469310572704</v>
+        <v>1.974351998714553</v>
       </c>
       <c r="D24">
-        <v>0.1057111740420709</v>
+        <v>0.3249912094238852</v>
       </c>
       <c r="E24">
-        <v>0.6093970542924012</v>
+        <v>2.348912399112606</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.286806491406196</v>
+        <v>3.173584307804191</v>
       </c>
       <c r="H24">
-        <v>1.001152966967823</v>
+        <v>1.55244021548998</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9533740558323771</v>
+        <v>0.3528283195005741</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.700403441628339</v>
+        <v>5.420521516697647</v>
       </c>
       <c r="C25">
-        <v>0.444965208069334</v>
+        <v>1.579543758894943</v>
       </c>
       <c r="D25">
-        <v>0.09032387880350257</v>
+        <v>0.2593084986167327</v>
       </c>
       <c r="E25">
-        <v>0.499619096640302</v>
+        <v>1.838609541810399</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.158643226371225</v>
+        <v>2.527287811009614</v>
       </c>
       <c r="H25">
-        <v>0.9533391626897583</v>
+        <v>1.267422279399256</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9817396445230386</v>
+        <v>0.4237492158037952</v>
       </c>
       <c r="O25">
         <v>0</v>
